--- a/data/Metadata.xlsx
+++ b/data/Metadata.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heewon.seo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heewon.seo/Documents/GitHub/Numismous/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{346EE0CD-1F75-0D45-A6F3-C275F7ACBA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2934B1A9-5FE3-F74C-B383-F4442C8B2CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="500" windowWidth="21060" windowHeight="26500" xr2:uid="{FEA138E3-1F44-2443-AB2D-28F28117F7FD}"/>
+    <workbookView xWindow="880" yWindow="880" windowWidth="21060" windowHeight="22500" xr2:uid="{FEA138E3-1F44-2443-AB2D-28F28117F7FD}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="130">
   <si>
     <t>No</t>
   </si>
@@ -3728,7 +3729,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C95" t="s">
         <v>125</v>
@@ -3754,7 +3755,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C96" t="s">
         <v>126</v>
@@ -3778,4 +3779,67 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1179C4-80A9-D842-AB65-F9689223836F}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>